--- a/2019/武汉店/05 系统集成/LED信息/CMS FOR LED 的调整（LEIVS）20190815-EN.xlsx
+++ b/2019/武汉店/05 系统集成/LED信息/CMS FOR LED 的调整（LEIVS）20190815-EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="36" windowWidth="10560" windowHeight="7752"/>
+    <workbookView xWindow="9720" yWindow="36" windowWidth="10560" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="option 1" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -931,9 +931,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -946,17 +975,48 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -967,88 +1027,19 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1180,13 +1171,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>320290</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>944661</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>182881</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1203,7 +1194,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10866370" y="5890260"/>
+          <a:off x="13525750" y="5897880"/>
           <a:ext cx="624371" cy="822961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1393,81 +1384,6 @@
         <a:xfrm>
           <a:off x="4404360" y="0"/>
           <a:ext cx="5226256" cy="3567060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>3105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10553701" y="6774181"/>
-          <a:ext cx="1173479" cy="673664"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251459</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1254140</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect l="12204" t="-9279" r="-12204" b="56702"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10797539" y="8351520"/>
-          <a:ext cx="1002681" cy="480060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2461,14 +2377,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>240</xdr:col>
-      <xdr:colOff>390441</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>112151</xdr:rowOff>
+      <xdr:col>175</xdr:col>
+      <xdr:colOff>532258</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>96602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="框架图.jpg"/>
+        <xdr:cNvPr id="3" name="框架图.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2484,7 +2400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="146694441" cy="16388471"/>
+          <a:ext cx="107212258" cy="16921562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2506,15 +2422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>922020</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1264920</xdr:colOff>
+      <xdr:colOff>1691640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2523,8 +2439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="1341120"/>
-          <a:ext cx="769620" cy="243840"/>
+          <a:off x="2141220" y="1379220"/>
+          <a:ext cx="769620" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2616,7 +2532,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2710,7 +2626,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3059,7 +2975,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3166,7 +3082,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3273,7 +3189,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3380,7 +3296,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3487,7 +3403,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3594,7 +3510,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4552,7 +4468,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4659,7 +4575,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4766,7 +4682,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4876,7 +4792,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -5015,7 +4931,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -5138,7 +5054,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6967,8 +6883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7265,867 +7181,867 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:250" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="45"/>
+      <c r="L20" s="34"/>
       <c r="IP20"/>
     </row>
     <row r="21" spans="1:250" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
       <c r="IP21"/>
     </row>
     <row r="22" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="43">
         <v>1</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="43">
         <v>1</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="43">
         <v>1</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="43">
         <v>1</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="52"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
       <c r="IP22"/>
     </row>
     <row r="23" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="48">
         <v>5</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="49">
         <v>5</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="48">
         <v>5</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="48">
         <v>5</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="52"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="45"/>
       <c r="IP23"/>
     </row>
     <row r="24" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="34" t="s">
+      <c r="E24" s="48"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="52"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="45"/>
       <c r="IP24"/>
     </row>
     <row r="25" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="34" t="s">
+      <c r="E25" s="48"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="52"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="45"/>
       <c r="IP25"/>
     </row>
     <row r="26" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="34" t="s">
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="52"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="45"/>
       <c r="IP26"/>
     </row>
     <row r="27" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="34" t="s">
+      <c r="E27" s="48"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="52"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="45"/>
       <c r="IP27"/>
     </row>
     <row r="28" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="49">
         <v>4</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="49">
         <v>4</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="49">
         <v>4</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="49">
         <v>4</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="52"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="45"/>
       <c r="IP28"/>
     </row>
     <row r="29" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="34" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="52"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="45"/>
       <c r="IP29"/>
     </row>
     <row r="30" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="34" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="34" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="52"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="45"/>
       <c r="IP30"/>
     </row>
     <row r="31" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="34" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="52"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="45"/>
       <c r="IP31"/>
     </row>
     <row r="32" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="49">
         <v>3</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="49">
         <v>3</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="49">
         <v>3</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="49">
         <v>3</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="52"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
       <c r="IP32"/>
     </row>
     <row r="33" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="34" t="s">
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="52"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
       <c r="IP33"/>
     </row>
     <row r="34" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="34" t="s">
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="70"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="52"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
       <c r="IP34"/>
     </row>
     <row r="35" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="48">
         <v>4</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="49">
         <v>4</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="48">
         <v>4</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="48">
         <v>4</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="59"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="52"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="45"/>
       <c r="IP35"/>
     </row>
     <row r="36" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="34" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="34" t="s">
+      <c r="E36" s="48"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="52"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="45"/>
       <c r="IP36"/>
     </row>
     <row r="37" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="34" t="s">
+      <c r="E37" s="48"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="52"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="45"/>
       <c r="IP37"/>
     </row>
     <row r="38" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="34" t="s">
+      <c r="E38" s="48"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="52"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="45"/>
       <c r="IP38"/>
     </row>
     <row r="39" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="49">
         <v>2</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="49">
         <v>2</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="49">
         <v>2</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="49">
         <v>2</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="52"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
       <c r="IP39"/>
     </row>
     <row r="40" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="34" t="s">
+      <c r="C40" s="59"/>
+      <c r="D40" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="34" t="s">
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="52"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
       <c r="IP40"/>
     </row>
     <row r="41" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="43">
         <v>1</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="43">
         <v>1</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="43">
         <v>1</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="43">
         <v>1</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="52"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
       <c r="IP41"/>
     </row>
     <row r="42" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="43">
         <v>1</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="43">
         <v>1</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="43">
         <v>1</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="43">
         <v>1</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="52"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
       <c r="IP42"/>
     </row>
     <row r="43" spans="1:250" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="43">
         <v>1</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="43">
         <v>1</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="43">
         <v>1</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="43">
         <v>1</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="52"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
       <c r="IP43"/>
     </row>
     <row r="44" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="63">
         <v>6</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="63">
         <v>6</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="63">
         <v>6</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="63">
         <v>6</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="59"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="52"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="45"/>
       <c r="IP44"/>
     </row>
     <row r="45" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="40" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="40" t="s">
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="J45" s="59"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="52"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="45"/>
       <c r="IP45"/>
     </row>
     <row r="46" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="40" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="40" t="s">
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="59"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="52"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="45"/>
       <c r="IP46"/>
     </row>
     <row r="47" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="40" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="40" t="s">
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J47" s="59"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="52"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="45"/>
       <c r="IP47"/>
     </row>
     <row r="48" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="40" t="s">
+      <c r="C48" s="64"/>
+      <c r="D48" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="40" t="s">
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J48" s="59"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="52"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="45"/>
       <c r="IP48"/>
     </row>
     <row r="49" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="40" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="40" t="s">
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="52"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="52"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="45"/>
       <c r="IP49"/>
     </row>
     <row r="50" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="49">
         <v>2</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="49">
         <v>2</v>
       </c>
-      <c r="G50" s="41">
+      <c r="G50" s="49">
         <v>2</v>
       </c>
-      <c r="H50" s="41">
+      <c r="H50" s="49">
         <v>2</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="59"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="52"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="45"/>
       <c r="IP50"/>
     </row>
     <row r="51" spans="1:250" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="34" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="34" t="s">
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J51" s="52"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="52"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="45"/>
       <c r="IP51"/>
     </row>
     <row r="52" spans="1:250" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -8156,22 +8072,34 @@
       <c r="IP52"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H39:H40"/>
+  <mergeCells count="56">
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F28:F31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="L20:L51"/>
     <mergeCell ref="J28:J31"/>
@@ -8188,33 +8116,19 @@
     <mergeCell ref="K28:K31"/>
     <mergeCell ref="J44:J49"/>
     <mergeCell ref="J23:J27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="G32:G34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8302,20 +8216,20 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="67">
+      <c r="C5" s="29">
         <f>400+126+400+126</f>
         <v>1052</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29">
         <f>400+126+400+126</f>
         <v>1052</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="28">
         <v>400</v>
       </c>
@@ -8378,7 +8292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0"/>
+    <sheetView topLeftCell="BK1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CH129" sqref="CH129"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -8393,13 +8309,13 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="3" width="25.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" style="13" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
@@ -8412,7 +8328,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="14">
-        <v>1152</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
